--- a/数据模版，要跟软件配合使用/模拟机-中型TYA.xlsx
+++ b/数据模版，要跟软件配合使用/模拟机-中型TYA.xlsx
@@ -110,7 +110,7 @@
     <t>训练</t>
   </si>
   <si>
-    <t>珠海</t>
+    <t>哥谭市</t>
   </si>
   <si>
     <t>SM600</t>
@@ -1266,7 +1266,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J5"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83185840707965" defaultRowHeight="13.85" outlineLevelRow="4"/>
